--- a/Contas - PMGAS - ADM.xlsx
+++ b/Contas - PMGAS - ADM.xlsx
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lais</t>
+          <t>laisH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/Contas - PMGAS - ADM.xlsx
+++ b/Contas - PMGAS - ADM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Laís Hillary Santos de Miranda</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>laishillary20@gmail.com</t>
@@ -459,12 +463,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>senha123</t>
+          <t>lais05</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Paulo Avelino Neves Araujo</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>pauloneves857@gmail.com</t>
@@ -472,12 +480,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123senha</t>
+          <t>paulo28</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>João Guilherme Sanches Brito</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>sanchesgui8@gmail.com</t>
@@ -485,12 +497,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>123s</t>
+          <t>joao20</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gabriel Luiz Nascimento Barata</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>gabriel.luiz.b20@gmail.com</t>
@@ -498,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>s123</t>
+          <t>gabriel24</t>
         </is>
       </c>
     </row>
@@ -506,40 +522,27 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jubileu</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12345a</t>
+          <t>1a</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>laisH</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>1s</t>
         </is>
